--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -134,6 +134,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic Algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Playing Against Non-Random Enemies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -141,10 +201,278 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>scores vs generation</c:v>
+            <c:v>Top Score Per Generation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4358-42CC-BD80-5B2BBE7CC082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Score Per Generation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -396,265 +724,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4358-42CC-BD80-5B2BBE7CC082}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>generations vs top</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1890</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1890</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2680</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2680</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4358-42CC-BD80-5B2BBE7CC082}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -690,6 +759,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -752,6 +876,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -801,6 +980,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64971601638906318"/>
+          <c:y val="0.40696877734033243"/>
+          <c:w val="0.33790006683773577"/>
+          <c:h val="0.28706911636045496"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -859,6 +1079,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic Algorithm Playing Against</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Random Enemies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -866,15 +1146,18 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>generations vs average (random)</c:v>
+            <c:v>Top Score Per Generation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -885,11 +1168,17 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1596,699 +1885,699 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$232</c:f>
+              <c:f>Sheet1!$G$3:$G$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="230"/>
                 <c:pt idx="0">
-                  <c:v>92.5</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>213</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>236</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>212</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>253.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>256</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>252</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>305.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>353</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>340.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>327.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>280.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>312</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>327.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>319</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>347</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>324.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>359</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>339</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>351</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>377.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>351</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>333.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>325.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>337</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>338</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>349</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>373.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>336.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>381.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>326.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>380</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>351.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>410</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>347.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>433</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>393.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>347</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>375</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>381.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>397.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>427.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>427.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>422</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>394.5</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>424</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>402.5</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>440</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>439</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>432</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>436.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>484</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>441</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>462.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>412</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>445.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>456</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>416.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>460.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>489</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>430.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>457</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>486.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>471</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>450</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>468</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>498.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>511</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>516.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>554.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>505.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>511.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>553.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>537</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>514</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>491</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>523.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>547.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>499.5</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>498</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>555.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>586</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>645.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>703</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>629</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>654.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>603.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>609</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>607.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>603.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>681.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>654</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>703.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>598</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>603.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>655</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>613</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>607</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>610</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>636</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>684</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>635.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>621</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>673</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>615.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>626.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>673</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>650</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>663</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>692</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>675.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>702</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>627</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>663</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>661.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>694.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>713</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>714</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>698.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>660</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>657.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>651.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>695</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>692.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>688.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>680</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>715</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>661.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>654</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>710</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>648</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>694</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>716.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>689.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>685</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>671.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>721.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>717</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>653</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>678</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>690.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>812</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>707</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>671</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>713</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>701</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>721</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>688</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>666</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>708.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>688.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>673</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>677.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>687.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>672</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>782.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>762</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>718</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>699.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>760</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>715</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>646</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>705.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>738.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>704.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>717.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>695.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>769.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>719.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>795.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>865.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>785.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>751.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>724</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>700.5</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>766</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>811.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>701.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>775.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>747.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>759</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>747</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>743</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>755</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>723.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>761</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>753.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>752</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>769</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>732.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>763.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>706.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>702.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>765.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>704</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>745.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>711.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>782</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>739</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>831</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>751</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>719.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>751.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>740.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>832.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>830</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>811.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>724</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>856.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>759</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>771</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>754</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>782</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>793</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>750</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>758.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>731</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>766.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>780.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>740.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>751.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>780.5</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>817</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,20 +2585,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EAE8-44F5-B9A2-F6545D12BF30}"/>
+              <c16:uniqueId val="{00000001-EAE8-44F5-B9A2-F6545D12BF30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>generations vs top (random)</c:v>
+            <c:v>Average Score Per Generation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2320,11 +2609,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3031,699 +3320,699 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$232</c:f>
+              <c:f>Sheet1!$F$3:$F$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="230"/>
                 <c:pt idx="0">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>253.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>327.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>327.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>324.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>377.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>333.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>325.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>373.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>336.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>381.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>326.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>351.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>410</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>640</c:v>
-                </c:pt>
                 <c:pt idx="41">
-                  <c:v>640</c:v>
+                  <c:v>347.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>640</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>640</c:v>
+                  <c:v>393.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>640</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>640</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>640</c:v>
+                  <c:v>381.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>640</c:v>
+                  <c:v>397.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>640</c:v>
+                  <c:v>427.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>640</c:v>
+                  <c:v>427.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>670</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>670</c:v>
+                  <c:v>394.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>670</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>670</c:v>
+                  <c:v>402.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1450</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1450</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1450</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1450</c:v>
+                  <c:v>436.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1450</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1450</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1450</c:v>
+                  <c:v>462.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1450</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1450</c:v>
+                  <c:v>445.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1450</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1450</c:v>
+                  <c:v>416.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1450</c:v>
+                  <c:v>460.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1450</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1450</c:v>
+                  <c:v>430.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1450</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1450</c:v>
+                  <c:v>486.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1450</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1450</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1450</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1450</c:v>
+                  <c:v>498.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1450</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1450</c:v>
+                  <c:v>516.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1450</c:v>
+                  <c:v>554.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1450</c:v>
+                  <c:v>505.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1450</c:v>
+                  <c:v>511.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1450</c:v>
+                  <c:v>553.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1450</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1450</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1450</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1450</c:v>
+                  <c:v>523.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1450</c:v>
+                  <c:v>547.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1450</c:v>
+                  <c:v>499.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1450</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1480</c:v>
+                  <c:v>555.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1480</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1480</c:v>
+                  <c:v>645.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1480</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1480</c:v>
+                  <c:v>629</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1480</c:v>
+                  <c:v>654.5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1480</c:v>
+                  <c:v>603.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1480</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1480</c:v>
+                  <c:v>607.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1480</c:v>
+                  <c:v>603.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1480</c:v>
+                  <c:v>681.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1480</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1480</c:v>
+                  <c:v>703.5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1480</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1480</c:v>
+                  <c:v>603.5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1480</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1480</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1480</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1480</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1480</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1480</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1480</c:v>
+                  <c:v>635.5</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1480</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1480</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1480</c:v>
+                  <c:v>615.5</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1480</c:v>
+                  <c:v>626.5</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1480</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1480</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1480</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1480</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1480</c:v>
+                  <c:v>675.5</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1480</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1480</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1480</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1480</c:v>
+                  <c:v>661.5</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1480</c:v>
+                  <c:v>694.5</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1480</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1480</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1480</c:v>
+                  <c:v>698.5</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1480</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1480</c:v>
+                  <c:v>657.5</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1480</c:v>
+                  <c:v>651.5</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1480</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1480</c:v>
+                  <c:v>692.5</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1480</c:v>
+                  <c:v>688.5</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1480</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1480</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1480</c:v>
+                  <c:v>661.5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1480</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1480</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1480</c:v>
+                  <c:v>648</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1480</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1480</c:v>
+                  <c:v>716.5</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1480</c:v>
+                  <c:v>689.5</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1480</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1480</c:v>
+                  <c:v>671.5</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1480</c:v>
+                  <c:v>721.5</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1480</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1480</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1480</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1480</c:v>
+                  <c:v>690.5</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1480</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1480</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1480</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1480</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1480</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1480</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1480</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1480</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1480</c:v>
+                  <c:v>708.5</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1480</c:v>
+                  <c:v>688.5</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1480</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1480</c:v>
+                  <c:v>677.5</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1480</c:v>
+                  <c:v>687.5</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1480</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1480</c:v>
+                  <c:v>782.5</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1480</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1480</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1480</c:v>
+                  <c:v>699.5</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1480</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1480</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1480</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1480</c:v>
+                  <c:v>705.5</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1480</c:v>
+                  <c:v>738.5</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1480</c:v>
+                  <c:v>704.5</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1480</c:v>
+                  <c:v>717.5</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1480</c:v>
+                  <c:v>695.5</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1480</c:v>
+                  <c:v>769.5</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1480</c:v>
+                  <c:v>719.5</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1480</c:v>
+                  <c:v>795.5</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1480</c:v>
+                  <c:v>865.5</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1480</c:v>
+                  <c:v>785.5</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1480</c:v>
+                  <c:v>751.5</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1480</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1480</c:v>
+                  <c:v>700.5</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1480</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1510</c:v>
+                  <c:v>811.5</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1510</c:v>
+                  <c:v>701.5</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1510</c:v>
+                  <c:v>775.5</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1510</c:v>
+                  <c:v>747.5</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1510</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1510</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1510</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1510</c:v>
+                  <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1510</c:v>
+                  <c:v>723.5</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1510</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1510</c:v>
+                  <c:v>753.5</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1510</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1510</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1510</c:v>
+                  <c:v>732.5</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1510</c:v>
+                  <c:v>763.5</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1510</c:v>
+                  <c:v>706.5</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1510</c:v>
+                  <c:v>702.5</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1510</c:v>
+                  <c:v>765.5</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1510</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1510</c:v>
+                  <c:v>745.5</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1510</c:v>
+                  <c:v>711.5</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1510</c:v>
+                  <c:v>782</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1510</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1510</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1510</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1510</c:v>
+                  <c:v>719.5</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1510</c:v>
+                  <c:v>751.5</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1510</c:v>
+                  <c:v>740.5</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1510</c:v>
+                  <c:v>832.5</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1510</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>1510</c:v>
+                  <c:v>811.5</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1510</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1510</c:v>
+                  <c:v>856.5</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1510</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1510</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1510</c:v>
+                  <c:v>754</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1510</c:v>
+                  <c:v>782</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1510</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1510</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1510</c:v>
+                  <c:v>758.5</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1510</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1510</c:v>
+                  <c:v>766.5</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1510</c:v>
+                  <c:v>780.5</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1510</c:v>
+                  <c:v>740.5</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1510</c:v>
+                  <c:v>751.5</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1510</c:v>
+                  <c:v>780.5</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1510</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,7 +4020,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EAE8-44F5-B9A2-F6545D12BF30}"/>
+              <c16:uniqueId val="{00000000-EAE8-44F5-B9A2-F6545D12BF30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3750,6 +4039,8 @@
         <c:axId val="751293384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="230"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3767,6 +4058,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3829,6 +4175,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3878,6 +4279,3864 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic Algorithm Playing Against</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Non-Random and Random Enemies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Non-Random Top</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E07D-48A3-8A24-2915034248B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Non-Random Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>786.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E07D-48A3-8A24-2915034248B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Random Top</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="230"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="230"/>
+                <c:pt idx="0">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E07D-48A3-8A24-2915034248B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Random Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="230"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="230"/>
+                <c:pt idx="0">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>253.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>327.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>327.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>324.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>377.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>333.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>325.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>373.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>336.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>381.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>326.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>351.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>347.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>393.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>381.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>397.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>427.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>427.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>394.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>402.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>436.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>462.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>445.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>416.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>460.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>430.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>486.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>498.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>516.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>554.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>505.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>511.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>553.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>523.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>547.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>499.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>555.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>645.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>654.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>603.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>607.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>603.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>681.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>703.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>603.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>635.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>615.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>626.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>675.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>661.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>694.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>698.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>657.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>651.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>692.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>688.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>661.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>716.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>689.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>671.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>721.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>690.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>708.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>688.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>677.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>687.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>782.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>699.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>705.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>738.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>704.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>717.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>695.5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>769.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>719.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>795.5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>865.5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>785.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>751.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>700.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>811.5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>701.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>775.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>747.5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>723.5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>753.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>732.5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>763.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>706.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>702.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>765.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>745.5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>711.5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>719.5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>751.5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>740.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>832.5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>811.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>856.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>758.5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>766.5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>780.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>740.5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>751.5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>780.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E07D-48A3-8A24-2915034248B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="272332688"/>
+        <c:axId val="272325144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="272332688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="230"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272325144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="272325144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272332688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82680789720871062"/>
+          <c:y val="0.17688429571303585"/>
+          <c:w val="0.1651051695322879"/>
+          <c:h val="0.59572178477690296"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3963,6 +8222,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5034,20 +9333,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5075,15 +9890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>238123</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>295273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5108,15 +9923,51 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400048</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14E76B8-5D4C-4D60-A811-E0F5DD29B08F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="random" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="unrandom" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="unrandom" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="random" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5418,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -9890,13 +9890,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295273</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -9926,13 +9926,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400048</xdr:colOff>
+      <xdr:colOff>295273</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -10269,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="9120"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21540" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8102,10 +8102,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82680789720871062"/>
+          <c:x val="0.71247411902066471"/>
           <c:y val="0.17688429571303585"/>
-          <c:w val="0.1651051695322879"/>
-          <c:h val="0.59572178477690296"/>
+          <c:w val="0.26935057889060016"/>
+          <c:h val="0.80405511811023622"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9895,8 +9895,8 @@
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -9931,8 +9931,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -10270,7 +10270,7 @@
   <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
